--- a/data/excel files/course list.xlsx
+++ b/data/excel files/course list.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma_tr\Desktop\University files\CAT201\project\student-course-registration-system\data\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE146EA-4EEC-46C0-956D-A3426B164D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E9882-CCA9-4D20-A019-AB6D052CCE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6408" yWindow="1296" windowWidth="16176" windowHeight="10344"/>
+    <workbookView xWindow="108" yWindow="1200" windowWidth="16176" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="course list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>COURSE_CODE</t>
   </si>
@@ -170,12 +170,171 @@
   </si>
   <si>
     <t>APPRECIATION OF ETHICS AND CIVILISATIONS</t>
+  </si>
+  <si>
+    <t>CPT111</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF PROGRAMMING</t>
+  </si>
+  <si>
+    <t>COURSE_DESC</t>
+  </si>
+  <si>
+    <t>COURSE_TIME</t>
+  </si>
+  <si>
+    <t>Monday 1:00pm-3:00pm</t>
+  </si>
+  <si>
+    <t>This course introduces the theories, concepts and frameworks of management and how these lead to the effective management of a modern-day organisation. Students are introduced to the rich context and approaches of the theory and practice of management and explore the four critical dimensions of planning, organising, leading and controlling within an organisation. The course examines these four dimensions at three levels: the individual, the group and the organisation and applies them to case studies and other real-world contexts. This subject also exposes the students on the various areas of business.</t>
+  </si>
+  <si>
+    <t>Tuesday 1:00pm-3:00pm</t>
+  </si>
+  <si>
+    <t>The aim of this course is to provide understanding of the concepts of accounting and finance that includes financial  accounting,  management  accounting  and financial  management.  Accounting  and  finance focuses on the principles and procedures of reporting financial information. Management accounting gives attention to  planning  and  control  via  accounting information, whilst financial management emphasizeson investment and financial decisions.</t>
+  </si>
+  <si>
+    <t>Wednesday 1:00pm-3:00pm</t>
+  </si>
+  <si>
+    <t>This course is to give exposure to students regarding issues in research, formulation of problems, hypothesis, theories, research evaluation, research design, data measurement and collection, sampling, data analysis and research report writing.</t>
+  </si>
+  <si>
+    <t>Thursday 1:00pm-3:00pm</t>
+  </si>
+  <si>
+    <t>This course is an introduction of marketing course to students. It encompasses theory and marketing philosophy that focuses on elements such as product, price, place and promotion which is the foundation of marketing theory building. In addition, students are also exposed to the environmental factors such as technology development, consumer, marketing and global community that influence the current marketing practices.</t>
+  </si>
+  <si>
+    <t>Friday 1:00pm-3:00pm</t>
+  </si>
+  <si>
+    <t>This course provides students with a conceptual understanding of the financial decision making. It introduces the basic concept in finance such as time value of money and; risk and return. These concepts are then applied to topics such as capital budgeting and securities valuation. Besides, policies on capital structure and working capital will also be looked at in the course.</t>
+  </si>
+  <si>
+    <t>Tuesday 10:00am-12:00pm</t>
+  </si>
+  <si>
+    <t>This course introduces the practical aspects of collaborative software development and graphics programming especially in JAVA programming, and web platform based development. Basic concepts of human-computer interaction are also provided especially from the aspects of usability, user-centric design and GUI evaluation. Students are taught various models of software development, pair-programming and code management techniques. Students are required to put into practice the taught concepts through a GUIbased software development project.</t>
+  </si>
+  <si>
+    <t>Wednesday 10:00am-12:00pm</t>
+  </si>
+  <si>
+    <t>The course starts with the discussion on the importance of data to an organisation and how the data should be processed and managed. Then the concept of database is introduced. Database management system (DBMS) will be viewed as a solution to the problems of file processing system. Aspects of relational database design will be covered in detail. Students will also be guided through the database development life cycle, database architecture, various data models, and normalisation process. Database implementation will be covered in the discussion of query languages such as SQL and QBE. The course ends with some discussions on selected current topics in database technologies. The students’ understanding is further enhanced by the implementation of phased project assignments throughout the course.</t>
+  </si>
+  <si>
+    <t>Monday 10:00am-12:00pm</t>
+  </si>
+  <si>
+    <t>This course introduces basic logic concepts and techniques in constructing and evaluating arguments including forming a standard argument, differentiating validity of argument, applying rules to prove validity of arguments. In addition, it also exposes students to basic approaches of fundamental artificial intelligence, including basic search strategies, basic knowledge representation and reasoning and basic machine learning.</t>
+  </si>
+  <si>
+    <t>Monday 8:00am-10:00am</t>
+  </si>
+  <si>
+    <t>The main emphasis of the course is on the basic principles of programming using the C++ programming language. This course covers basic concepts of computer system, introduction to problem solving techniques, basics of programming, control structures, modular programming, data file processing, reference variable, pointers and one dimensional array.</t>
+  </si>
+  <si>
+    <t>Tuesday 8:00am-10:00am</t>
+  </si>
+  <si>
+    <t>Discrete mathematics is the study of mathematical structures that are fundamentally discrete. Discrete structure serves as a fundamental concept which lies at the core of a Computer Science study. Computer system is essentially a finite discrete system which understanding such system can be aided by modelling it as a discrete mathematical system.</t>
+  </si>
+  <si>
+    <t>Thursday 8:00am-10:00am</t>
+  </si>
+  <si>
+    <t>This course exposes students to data structures e.g. dynamic arrays, lists, stacks, queues, and fundamental binary trees. This course also strengthens further programming skills in C++ using computational thinking methods through topics that include recursion, object oriented design, data abstraction, and classes. This course gives fundamental knowledge on abstract data types and data structures in problem solving.</t>
+  </si>
+  <si>
+    <t>Friday 8:00am-10:00am</t>
+  </si>
+  <si>
+    <t>Mathematical methods play a significant role in Computer Science. This course combines fundamental mathematics concepts with practical analysis through the use of MATLAB as a software tool. Concepts covered include Matrices, Vectors, Complex Numbers, Numerical Analysis, and Introduction to Simulation and Statistics. The applications of these concepts in the field of Computer Science are demonstrated along with the mathematical concepts in an integrated manner.</t>
+  </si>
+  <si>
+    <t>Friday 10:00am-12:00pm</t>
+  </si>
+  <si>
+    <t>This course describes the foundations of software engineering including aspects of software proceses, requirements engineering, system modelling, system architecture and system design, system implementation, system testing, system maintenance and project management. The focus is on the discipline required as best practice, in the process of software development. The modelling that needs to be learned in system specification includes use cases using the UML approach. Examples of systems and case studies will be discussed to enable students to build their knowledge in system theory and application. Emphasis on real systems through software development processes using the Agile method, begins with the requirements engineering up to the project management process. Approaches to practical issues will be given to enable students to build theoretical and application knowledge in software engineering throughtheoretical description and illustration, as well as system prototype development and case studies using the UML approach.</t>
+  </si>
+  <si>
+    <t>Wednesday 8:00am-10:00am</t>
+  </si>
+  <si>
+    <t>This course introduces the structure and functional units of the computer that are responsible for storing and processing information. It focuses on the functioning of individual components, interaction between components, techniques and technologies used, various number systems and simple digital logic circuits.</t>
+  </si>
+  <si>
+    <t>Thursday 10:00am-12:00pm</t>
+  </si>
+  <si>
+    <t>To understand the workings of an entire computer system, it begins with an understanding of an operating system. It is because operating system manages every piece of hardware and software. This course is to explore what operating systems are, how they work, what they do and why. Therefore, this course introduces the basic principles of operating system such as memory management, process management, file and device management as well as system programming.</t>
+  </si>
+  <si>
+    <t>Friday 5:00pm-7:00pm</t>
+  </si>
+  <si>
+    <t>Kursus ini dibangunkan sebagai pendedahan kepada penghayatan etika dan peradaban yang merentasi pelbagai bangsa, agama, budaya dan tamadun di Malaysia.</t>
+  </si>
+  <si>
+    <t>Thursday 5:00pm-7:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course covers the relation between philosophy and the National Education Philosophy and Rukun Negara. Philosophy is used as a tool to refine the culture of thought in life through the art and methods of thinking as well as through our understanding of the concept of the human person. Key fields in philosophy, namely epistemology, metaphysics, and ethics, are discussed in the context of current issues. Emphasis is given to philosophy as the basis for inter-cultural dialogue and fostering common values. At the end of this course, students will be able to see the disciplines of study as a comprehensive and integrated body of knowledge. </t>
+  </si>
+  <si>
+    <t>Monday 5:00pm-7:00pm</t>
+  </si>
+  <si>
+    <t>The foreign language courses offered by the School of Languages, Literacies and Translation can be taken by students as option or compulsory courses or to fulfil the number of units required for graduation. Students are not allowed to register for more than one foreign language course per semester. They must complete at least two levels of a foreign language course before they are allowed to register for another foreign language course. However, students are not required to complete all four levels of a foreign language course.</t>
+  </si>
+  <si>
+    <t>Friday 3:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>This course is the beginner level of Korean language. Students are exposed to the Hangul script, vocabulary and basic aspects of Korean grammar. Emphasis is placed on the four basic language skills such as listening, reading, writing and speaking which include the competency of communication in daily situations.</t>
+  </si>
+  <si>
+    <t>Tuesday 5:00pm-7:00pm</t>
+  </si>
+  <si>
+    <t>This course is designed to equip students with the necessary skills to use Bahasa Malaysia effectively for social, occupational and professional purposes. The course emphasizes the four language skills – listening, speaking, reading and writing. Listening and speaking are integrated and the focus will be on achieving not only appropriateness and functional effectiveness but also phonological accuracy in speech. The reading and writing components will emphasize grammatical and semantic accuracy. Topics for essay writing will provide students with the opportunity to learn logical processes related to analysis, synthesis and exposition.</t>
+  </si>
+  <si>
+    <t>Wednesday 3:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>This upper-intermediate course provides students from all disciplines of study with a MUET score of 180 to 219 (Band 4) with the necessary language skills to enable them to proceed to the advanced level. The units are topical in nature and the four language skills (listening, speaking, reading and writing) revolve around the function emphasised in each unit. The grammar component is included incidentally to enable students to achieve a certain level of accuracy. The focus in the reading component is on developing reading skills and strategies using intermediate to advanced-level texts. Activities in the writing component are geared towards writing compositions, which students need to prepare them for a more challenging academic task in university. Activities in the speaking component are student-centred and thought-provoking to ensure students actually demonstrate their communication skills effectively. The focus in the listening component is on developing ways and strategies to listen effectively. Incidental teaching of grammar is integrated into the four language skills.</t>
+  </si>
+  <si>
+    <t>Monday 3:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>This is a course on basic concepts of differential and integral calculus. Some of the concepts being discussed are limit, continuity, derivative and integral. Techniques of differentiation and integration will also be taught. Some of the applications of differentiation and integration, like finding the maximum and minimum, the area and volume of revolution, are covered.</t>
+  </si>
+  <si>
+    <t>Thursday 3:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>This course introduces fundamental concepts of linear algebra. Topics covered include matrix operations, methods for solving linear systems, determinants, vector space in n and matrix diagonalisation.</t>
+  </si>
+  <si>
+    <t>Tuesday 3:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>This course introduces the basic concepts of linear algebra such as matrices, real vector spaces, linear transformations from R^n to R^m, inner product in R^n and diagonalization problems in real eigen value. The relationship between linear transformations and matrices is emphasized.</t>
+  </si>
+  <si>
+    <t>This course introduces basic computer concepts, algorithm development, problem solving methods and programming techniques using the C++ language. Topics covered include types of data, variables, input/output and file manipulation, computation and arithmetic expression, control structure, modular program design, arrays, pointers, structure and file processing. Application problems will be discussed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1009,211 +1168,383 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel files/course list.xlsx
+++ b/data/excel files/course list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma_tr\Desktop\University files\CAT201\project\student-course-registration-system\data\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E9882-CCA9-4D20-A019-AB6D052CCE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF4D8D-DD41-42F2-AF51-3349C34ECC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="1200" windowWidth="16176" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
